--- a/thesis/Final First Level Nii File FP.xlsx
+++ b/thesis/Final First Level Nii File FP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchaowang/Documents/GitHub/RStudio/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52884C3-DB52-5A4F-B911-04409AF30F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDC45D4-4362-3747-872B-45E9C2F7CAE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="5460" windowWidth="27920" windowHeight="17440" xr2:uid="{0EC82890-C5D7-C447-93AF-AAE9960D539C}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="27920" windowHeight="17440" xr2:uid="{0EC82890-C5D7-C447-93AF-AAE9960D539C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3079,7 +3079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9739C24-55FE-1A4D-98BD-B909D7F6CACB}">
   <dimension ref="A1:C416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C157" sqref="C157:C208"/>
     </sheetView>
   </sheetViews>
